--- a/Tottenham Westham.xlsx
+++ b/Tottenham Westham.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ausxx000\GitHub\blogScripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\blogScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <sheet name="Sheet1 (5)" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1 (6)" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1 (7)" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1 (8)" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1 (9)" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>Tottenham</t>
   </si>
@@ -77,38 +79,56 @@
     <t>Wellington</t>
   </si>
   <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
     <t>Chievo</t>
   </si>
   <si>
     <t>Udinese</t>
   </si>
+  <si>
+    <t>napoli</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verona</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torino</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bologna</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC milan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crotone</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -116,15 +136,63 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -155,16 +223,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -196,11 +273,17 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>294781</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>190167</xdr:rowOff>
+      <xdr:rowOff>171117</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -239,11 +322,17 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>294781</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>190167</xdr:rowOff>
+      <xdr:rowOff>171117</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -273,20 +362,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>294781</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>190167</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190006</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698DDBAB-61A5-4F1D-AFF6-A435DA4B9E47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -299,7 +394,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="1905000"/>
+          <a:off x="4467225" y="1590675"/>
           <a:ext cx="3952381" cy="2666667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -316,20 +411,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>580531</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>94917</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228106</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42AE10D7-B489-4386-B588-303F52E7B6A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -342,7 +443,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3333750" y="2000250"/>
+          <a:off x="5191125" y="1419225"/>
           <a:ext cx="3952381" cy="2666667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -372,7 +473,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -386,6 +493,104 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3657600" y="1924050"/>
+          <a:ext cx="3952381" cy="2666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>256681</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3838387-6D21-455E-B755-150532342E80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="1447800"/>
+          <a:ext cx="3952381" cy="2666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504331</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28242</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6F9D99-6784-4E13-95C4-A8D1AF24B6ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781550" y="1476375"/>
           <a:ext cx="3952381" cy="2666667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -660,25 +865,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="9">
         <v>1</v>
       </c>
       <c r="E2">
@@ -700,7 +905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -755,14 +960,14 @@
         <v>1.1347032000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>0.10058954000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
         <v>9.049828E-2</v>
       </c>
       <c r="E4">
@@ -790,7 +995,7 @@
         <f>1/140</f>
         <v>7.1428571428571426E-3</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="12">
         <f t="shared" ref="N4:N6" si="3">C4/I4-1</f>
         <v>-1.4222507999999801E-2</v>
       </c>
@@ -807,14 +1012,14 @@
         <v>0.70919700000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>0.10930329</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="14">
         <v>9.8337850000000004E-2</v>
       </c>
       <c r="E5">
@@ -842,11 +1047,11 @@
         <f>1/110</f>
         <v>9.0909090909090905E-3</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="12">
         <f t="shared" si="3"/>
         <v>-0.16929499599999998</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="12">
         <f t="shared" si="0"/>
         <v>-1.6621499999999956E-2</v>
       </c>
@@ -859,14 +1064,14 @@
         <v>0.45927539999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>7.9181249999999995E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>7.1237690000000006E-2</v>
       </c>
       <c r="E6">
@@ -894,11 +1099,11 @@
         <f>1/130</f>
         <v>7.6923076923076927E-3</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="12">
         <f t="shared" si="3"/>
         <v>-0.22402374999999997</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="12">
         <f t="shared" si="0"/>
         <v>-0.14514771999999987</v>
       </c>
@@ -911,7 +1116,7 @@
         <v>0.24932989999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -926,7 +1131,7 @@
         <v>0.21739130434782611</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -947,7 +1152,7 @@
         <v>1.0105210918114143</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -962,21 +1167,21 @@
         <v>0.14410000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C11">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C11" s="11">
         <f>C10/C9-1</f>
         <v>-0.13679999999999992</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="11">
         <f t="shared" ref="D11:E11" si="4">D10/D9-1</f>
         <v>0.18978000000000006</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="11">
         <f t="shared" si="4"/>
         <v>0.80125000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C13">
         <v>0.74</v>
       </c>
@@ -988,7 +1193,7 @@
         <v>9.9500000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4.0583260000000003E-2</v>
       </c>
@@ -1018,7 +1223,7 @@
         <v>0.16912700000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>9.8833969999999993E-2</v>
       </c>
@@ -1048,7 +1253,7 @@
         <v>4.8976600000000037E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>0.12034709</v>
       </c>
@@ -1078,7 +1283,7 @@
         <v>3.5982000000001069E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>9.7695299999999999E-2</v>
       </c>
@@ -1109,31 +1314,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="9">
         <v>1</v>
       </c>
       <c r="E2">
@@ -1155,7 +1361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1210,14 +1416,14 @@
         <v>-0.97198077599999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>9.0686199999999995E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="14">
         <v>7.6446680000000003E-2</v>
       </c>
       <c r="E4">
@@ -1249,7 +1455,7 @@
         <f t="shared" ref="N4:N6" si="1">C4/I4-1</f>
         <v>-0.23823592000000005</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="8">
         <f t="shared" si="0"/>
         <v>-0.34255855199999996</v>
       </c>
@@ -1262,14 +1468,14 @@
         <v>-0.45675759999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>0.11135529</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>9.3870319999999993E-2</v>
       </c>
       <c r="E5">
@@ -1314,14 +1520,14 @@
         <v>-0.44411900000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>9.1156840000000003E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>7.6843430000000004E-2</v>
       </c>
       <c r="E6">
@@ -1366,7 +1572,7 @@
         <v>-0.45393820000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -1381,7 +1587,7 @@
         <v>0.21739130434782611</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -1402,7 +1608,7 @@
         <v>1.0260723296888141</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -1417,21 +1623,21 @@
         <v>0.10899999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C11">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C11" s="1">
         <f>C10/C9-1</f>
         <v>0.19342800000000016</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <f t="shared" ref="D11:E11" si="2">D10/D9-1</f>
         <v>-0.33047000000000004</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f t="shared" si="2"/>
         <v>-0.36780000000000013</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C13">
         <v>0.74</v>
       </c>
@@ -1443,7 +1649,7 @@
         <v>9.9500000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3.6926790000000001E-2</v>
       </c>
@@ -1473,7 +1679,7 @@
         <v>-0.97198077599999999</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>9.0686199999999995E-2</v>
       </c>
@@ -1503,7 +1709,7 @@
         <v>-0.45675759999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>0.11135529</v>
       </c>
@@ -1533,7 +1739,7 @@
         <v>-0.44411900000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>9.1156840000000003E-2</v>
       </c>
@@ -1564,34 +1770,35 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="9">
         <v>2</v>
       </c>
       <c r="F2">
@@ -1610,20 +1817,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>0</v>
       </c>
       <c r="C3">
         <v>5.6535549999999997E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="9">
         <v>6.8554680000000007E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="13">
         <v>4.1564499999999997E-2</v>
       </c>
       <c r="F3">
@@ -1656,7 +1863,7 @@
         <f t="shared" ref="O3:Q6" si="0">D3/J3-1</f>
         <v>-7.4511819999999895E-2</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="8">
         <f t="shared" si="0"/>
         <v>-0.23105675000000014</v>
       </c>
@@ -1665,17 +1872,17 @@
         <v>-0.29438781999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>9.3865500000000004E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
         <v>0.11382075</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>6.9009180000000003E-2</v>
       </c>
       <c r="F4">
@@ -1717,17 +1924,17 @@
         <v>-0.27477212000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>7.7922039999999998E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>9.4487810000000005E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="10">
         <v>5.7287680000000001E-2</v>
       </c>
       <c r="F5">
@@ -1769,14 +1976,14 @@
         <v>-0.25902175999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="10">
         <v>4.312444E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="10">
         <v>5.2292430000000001E-2</v>
       </c>
       <c r="E6">
@@ -1821,7 +2028,7 @@
         <v>-0.23109999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -1836,7 +2043,7 @@
         <v>0.21739130434782611</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -1857,7 +2064,7 @@
         <v>1.0087986438787415</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -1872,7 +2079,7 @@
         <v>0.27934000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C11" s="1">
         <f>C10/C9-1</f>
         <v>0.21528840000000016</v>
@@ -1886,7 +2093,7 @@
         <v>-0.18991399999999992</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C13">
         <v>0.74</v>
       </c>
@@ -1898,7 +2105,7 @@
         <v>9.9500000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5.6535549999999997E-2</v>
       </c>
@@ -1928,7 +2135,7 @@
         <v>-0.29438781999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>9.3865500000000004E-2</v>
       </c>
@@ -1958,7 +2165,7 @@
         <v>-0.27477212000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>7.7922039999999998E-2</v>
       </c>
@@ -1988,7 +2195,7 @@
         <v>-0.25902175999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>4.312444E-2</v>
       </c>
@@ -2019,6 +2226,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2026,31 +2234,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="10">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="9">
         <v>3</v>
       </c>
       <c r="I2">
@@ -2066,11 +2274,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>0</v>
       </c>
       <c r="C3">
@@ -2082,7 +2290,7 @@
       <c r="E3">
         <v>4.822299E-2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="13">
         <v>2.2992229999999999E-2</v>
       </c>
       <c r="H3">
@@ -2116,12 +2324,12 @@
         <f t="shared" si="0"/>
         <v>-3.5540200000000022E-2</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="8">
         <f t="shared" si="0"/>
         <v>-3.4326340000000011E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
@@ -2173,7 +2381,7 @@
         <v>8.3295800000000586E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2225,7 +2433,7 @@
         <v>-2.9453119999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
@@ -2277,7 +2485,7 @@
         <v>-1.4732200000000084E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -2292,7 +2500,7 @@
         <v>0.21739130434782611</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -2313,7 +2521,7 @@
         <v>1.0183071899561775</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -2328,7 +2536,7 @@
         <v>0.33811999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C11" s="1">
         <f>C10/C9-1</f>
         <v>5.7165999999999606E-3</v>
@@ -2342,7 +2550,7 @@
         <v>3.1265999999999794E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C13">
         <v>0.74</v>
       </c>
@@ -2354,7 +2562,7 @@
         <v>9.9500000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4.7139819999999999E-2</v>
       </c>
@@ -2384,7 +2592,7 @@
         <v>-3.4326340000000011E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>7.6567700000000002E-2</v>
       </c>
@@ -2414,7 +2622,7 @@
         <v>8.3295800000000586E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>6.2183240000000001E-2</v>
       </c>
@@ -2444,7 +2652,7 @@
         <v>-2.9453119999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>3.3667420000000003E-2</v>
       </c>
@@ -2475,6 +2683,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2482,21 +2691,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A18" sqref="A18:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C2">
         <v>0</v>
       </c>
@@ -2522,7 +2731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2530,16 +2739,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="7">
-        <v>2.9362389999999999E-2</v>
+        <v>2.4893579999999998E-2</v>
       </c>
       <c r="D3" s="7">
-        <v>4.1218959999999999E-2</v>
+        <v>1.982211E-2</v>
       </c>
       <c r="E3" s="7">
-        <v>2.8931620000000002E-2</v>
+        <v>7.8919100000000002E-3</v>
       </c>
       <c r="F3" s="7">
-        <v>1.3538079999999999E-2</v>
+        <v>2.0947100000000001E-3</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2562,36 +2771,36 @@
       </c>
       <c r="N3" s="1">
         <f>C3/I3-1</f>
-        <v>-0.44211458999999997</v>
+        <v>-0.52702198</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ref="O3:Q6" si="0">D3/J3-1</f>
-        <v>-5.1963920000000052E-2</v>
+        <v>-0.54409146999999991</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>0.38871776000000025</v>
+        <v>-0.62118831999999991</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
-        <v>-0.89440297600000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.98366126200000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>6.2372740000000003E-2</v>
+        <v>7.2113510000000006E-2</v>
       </c>
       <c r="D4" s="3">
-        <v>8.7558940000000002E-2</v>
+        <v>5.7422099999999997E-2</v>
       </c>
       <c r="E4" s="3">
-        <v>6.1457680000000001E-2</v>
+        <v>2.2861860000000001E-2</v>
       </c>
       <c r="F4" s="7">
-        <v>2.8758120000000002E-2</v>
+        <v>6.0680999999999999E-3</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2614,36 +2823,36 @@
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N6" si="1">C4/I4-1</f>
-        <v>-0.43864533999999999</v>
+        <v>-0.35097840999999996</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>-0.19445775200000004</v>
+        <v>-0.47171668000000011</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>0.19842475999999998</v>
+        <v>-0.55419372999999994</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>0.72548720000000011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.63591399999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>6.6247319999999998E-2</v>
+        <v>0.10445177</v>
       </c>
       <c r="D5" s="3">
-        <v>9.2998070000000002E-2</v>
+        <v>8.3172220000000005E-2</v>
       </c>
       <c r="E5" s="3">
-        <v>6.5275410000000006E-2</v>
+        <v>3.3113940000000001E-2</v>
       </c>
       <c r="F5" s="7">
-        <v>3.054457E-2</v>
+        <v>8.7892500000000002E-3</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2666,36 +2875,36 @@
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>-0.36402572799999999</v>
+        <v>2.7369919999999937E-3</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>-0.25601543999999998</v>
+        <v>-0.33462223999999996</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>-5.35065549999999E-2</v>
+        <v>-0.51984786999999999</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>0.46613936000000011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.57811599999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>4.6908390000000001E-2</v>
+        <v>0.10086112</v>
       </c>
       <c r="D6" s="3">
-        <v>6.5850060000000002E-2</v>
+        <v>8.031307E-2</v>
       </c>
       <c r="E6">
-        <v>4.6220200000000003E-2</v>
+        <v>3.19756E-2</v>
       </c>
       <c r="F6">
-        <v>2.162799E-2</v>
+        <v>8.4871100000000008E-3</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -2718,22 +2927,22 @@
       </c>
       <c r="N6" s="1">
         <f t="shared" si="1"/>
-        <v>-0.72793133800000009</v>
+        <v>-0.41500550400000003</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>-0.14394921999999999</v>
+        <v>4.4069909999999934E-2</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>-2.9375799999999841E-2</v>
+        <v>-0.32851239999999993</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
-        <v>0.18953945000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.5332089499999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -2748,7 +2957,7 @@
         <v>0.21739130434782611</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -2769,7 +2978,7 @@
         <v>1.0227792797255917</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -2784,7 +2993,7 @@
         <v>0.25124000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C11" s="1">
         <f>C10/C9-1</f>
         <v>-0.14079580000000003</v>
@@ -2798,7 +3007,7 @@
         <v>0.55768800000000018</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C13">
         <v>0.74</v>
       </c>
@@ -2810,127 +3019,134 @@
         <v>9.9500000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>2.9362389999999999E-2</v>
+        <v>2.4893579999999998E-2</v>
       </c>
       <c r="B18">
-        <v>4.1218959999999999E-2</v>
+        <v>1.982211E-2</v>
       </c>
       <c r="C18">
-        <v>2.8931620000000002E-2</v>
+        <v>7.8919100000000002E-3</v>
       </c>
       <c r="D18">
-        <v>1.3538079999999999E-2</v>
+        <v>2.0947100000000001E-3</v>
       </c>
       <c r="N18" s="1">
         <f>A18/I3-1</f>
-        <v>-0.44211458999999997</v>
+        <v>-0.52702198</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" ref="O18:Q18" si="3">B18/J3-1</f>
-        <v>-5.1963920000000052E-2</v>
+        <v>-0.54409146999999991</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="3"/>
-        <v>0.38871776000000025</v>
+        <v>-0.62118831999999991</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="3"/>
-        <v>-0.89440297600000007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.98366126200000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>6.2372740000000003E-2</v>
+        <v>7.2113510000000006E-2</v>
       </c>
       <c r="B19">
-        <v>8.7558940000000002E-2</v>
+        <v>5.7422099999999997E-2</v>
       </c>
       <c r="C19">
-        <v>6.1457680000000001E-2</v>
+        <v>2.2861860000000001E-2</v>
       </c>
       <c r="D19">
-        <v>2.8758120000000002E-2</v>
+        <v>6.0680999999999999E-3</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ref="N19:Q21" si="4">A19/I4-1</f>
-        <v>-0.43864533999999999</v>
+        <v>-0.35097840999999996</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="4"/>
-        <v>-0.19445775200000004</v>
+        <v>-0.47171668000000011</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="4"/>
-        <v>0.19842475999999998</v>
+        <v>-0.55419372999999994</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="4"/>
-        <v>0.72548720000000011</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.63591399999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>6.6247319999999998E-2</v>
+        <v>0.10445177</v>
       </c>
       <c r="B20" s="3">
-        <v>9.2998070000000002E-2</v>
+        <v>8.3172220000000005E-2</v>
       </c>
       <c r="C20">
-        <v>6.5275410000000006E-2</v>
+        <v>3.3113940000000001E-2</v>
       </c>
       <c r="D20">
-        <v>3.054457E-2</v>
+        <v>8.7892500000000002E-3</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="4"/>
-        <v>-0.36402572799999999</v>
+        <v>2.7369919999999937E-3</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="4"/>
-        <v>-0.25601543999999998</v>
+        <v>-0.33462223999999996</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="4"/>
-        <v>-5.35065549999999E-2</v>
+        <v>-0.51984786999999999</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="4"/>
-        <v>0.46613936000000011</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.57811599999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>4.6908390000000001E-2</v>
+        <v>0.10086112</v>
       </c>
       <c r="B21">
-        <v>6.5850060000000002E-2</v>
+        <v>8.031307E-2</v>
       </c>
       <c r="C21">
-        <v>4.6220200000000003E-2</v>
+        <v>3.19756E-2</v>
       </c>
       <c r="D21">
-        <v>2.162799E-2</v>
+        <v>8.4871100000000008E-3</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="4"/>
-        <v>-0.72793133800000009</v>
+        <v>-0.41500550400000003</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="4"/>
-        <v>-0.14394921999999999</v>
+        <v>4.4069909999999934E-2</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="4"/>
-        <v>-2.9375799999999841E-2</v>
+        <v>-0.32851239999999993</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="4"/>
-        <v>0.18953945000000005</v>
+        <v>-0.5332089499999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="E27">
+        <f>1/34</f>
+        <v>2.9411764705882353E-2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2938,25 +3154,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D6" sqref="C4:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2">
@@ -2978,218 +3194,218 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.21066503</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.19538112999999999</v>
+      <c r="C3" s="15">
+        <v>2.4893579999999998E-2</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1.982211E-2</v>
       </c>
       <c r="E3" s="7">
-        <v>9.0603039999999996E-2</v>
+        <v>7.8919100000000002E-3</v>
       </c>
       <c r="F3" s="7">
-        <v>2.8009909999999999E-2</v>
+        <v>2.0947100000000001E-3</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <f>1/15</f>
-        <v>6.6666666666666666E-2</v>
+        <f>1/48</f>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="J3">
+        <f>1/110</f>
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="K3">
+        <f>1/370</f>
+        <v>2.7027027027027029E-3</v>
+      </c>
+      <c r="L3">
+        <f>1/990</f>
+        <v>1.0101010101010101E-3</v>
+      </c>
+      <c r="N3" s="1">
+        <f>C3/I3-1</f>
+        <v>0.19489183999999993</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:Q6" si="0">D3/J3-1</f>
+        <v>1.1804321</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9200067000000001</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0737629000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
+        <v>7.2113510000000006E-2</v>
+      </c>
+      <c r="D4" s="15">
+        <v>5.7422099999999997E-2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2.2861860000000001E-2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>6.0680999999999999E-3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f>1/14.5</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="J4">
         <f>1/27</f>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="K3">
-        <f>1/70</f>
-        <v>1.4285714285714285E-2</v>
-      </c>
-      <c r="L3">
-        <f>1/270</f>
-        <v>3.7037037037037038E-3</v>
-      </c>
-      <c r="N3" s="1">
-        <f>C3/I3-1</f>
-        <v>2.1599754500000001</v>
-      </c>
-      <c r="O3" s="1">
-        <f t="shared" ref="O3:Q6" si="0">D3/J3-1</f>
-        <v>4.2752905099999996</v>
-      </c>
-      <c r="P3" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3422127999999995</v>
-      </c>
-      <c r="Q3" s="1">
-        <f t="shared" si="0"/>
-        <v>6.5626756999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.13272669000000001</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.12309726999999999</v>
-      </c>
-      <c r="E4" s="7">
-        <v>5.708324E-2</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1.764727E-2</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <f>1/8.4</f>
-        <v>0.11904761904761904</v>
-      </c>
-      <c r="J4">
-        <f>1/10</f>
-        <v>0.1</v>
-      </c>
       <c r="K4">
-        <f>1/30</f>
-        <v>3.3333333333333333E-2</v>
+        <f>1/95</f>
+        <v>1.0526315789473684E-2</v>
       </c>
       <c r="L4">
-        <f>1/120</f>
-        <v>8.3333333333333332E-3</v>
+        <f>1/470</f>
+        <v>2.1276595744680851E-3</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N6" si="1">C4/I4-1</f>
-        <v>0.11490419600000013</v>
+        <v>4.5645895000000047E-2</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>0.23097269999999992</v>
+        <v>0.55039670000000007</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>0.71249720000000005</v>
+        <v>1.1718767000000003</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>1.1176724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5">
+        <v>1.852007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
-        <v>4.1811340000000002E-2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3.8777899999999997E-2</v>
+      <c r="C5" s="16">
+        <v>0.10445177</v>
+      </c>
+      <c r="D5" s="16">
+        <v>8.3172220000000005E-2</v>
       </c>
       <c r="E5" s="7">
-        <v>1.7982270000000002E-2</v>
+        <v>3.3113940000000001E-2</v>
       </c>
       <c r="F5" s="7">
-        <v>5.5592100000000002E-3</v>
+        <v>8.7892500000000002E-3</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <f>1/7.6</f>
-        <v>0.13157894736842105</v>
+        <f>1/9.4</f>
+        <v>0.10638297872340426</v>
       </c>
       <c r="J5">
-        <f>1/9.6</f>
-        <v>0.10416666666666667</v>
+        <f>1/15.5</f>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="K5">
-        <f>1/26</f>
-        <v>3.8461538461538464E-2</v>
+        <f>1/46</f>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="L5">
-        <f>1/100</f>
-        <v>0.01</v>
+        <f>1/240</f>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>-0.68223381599999988</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.62773216000000009</v>
+        <v>-1.8153362000000062E-2</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28916941000000018</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>-0.53246097999999997</v>
+        <v>0.52324124000000016</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>-0.444079</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.1094200000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>8.7808899999999995E-3</v>
-      </c>
-      <c r="D6" s="7">
-        <v>8.1438299999999995E-3</v>
+      <c r="C6" s="16">
+        <v>0.10086112</v>
+      </c>
+      <c r="D6" s="16">
+        <v>8.031307E-2</v>
       </c>
       <c r="E6" s="7">
-        <v>3.7764999999999999E-3</v>
+        <v>3.19756E-2</v>
       </c>
       <c r="F6" s="7">
-        <v>1.1674999999999999E-3</v>
+        <v>8.4871100000000008E-3</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
-        <f>1/11</f>
-        <v>9.0909090909090912E-2</v>
+        <f>1/8</f>
+        <v>0.125</v>
       </c>
       <c r="J6" s="6">
-        <f>1/14</f>
-        <v>7.1428571428571425E-2</v>
+        <f>1/12.5</f>
+        <v>0.08</v>
       </c>
       <c r="K6" s="6">
-        <f>1/34</f>
-        <v>2.9411764705882353E-2</v>
+        <f>1/40</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L6">
-        <f>1/130</f>
-        <v>7.6923076923076927E-3</v>
+        <f>1/170</f>
+        <v>5.8823529411764705E-3</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="1"/>
-        <v>-0.90341020999999999</v>
+        <v>-0.19311104000000001</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>-0.88598637999999996</v>
+        <v>3.9133749999999967E-3</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>-0.87159900000000001</v>
+        <v>0.27902399999999994</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
-        <v>-0.84822500000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.44280870000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -3204,57 +3420,56 @@
         <v>0.21739130434782611</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9">
-        <f>1/1.44</f>
-        <v>0.69444444444444442</v>
+        <f>1/1.12</f>
+        <v>0.89285714285714279</v>
       </c>
       <c r="D9">
-        <f>1/4.9</f>
-        <v>0.2040816326530612</v>
+        <f>1/12.5</f>
+        <v>0.08</v>
       </c>
       <c r="E9" s="2">
-        <f>1/9.2</f>
-        <v>0.10869565217391305</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="F9">
         <f>SUM(C9:E9)</f>
-        <v>1.0072217292714187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.0022689075630251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10">
-        <v>0.23794999999999999</v>
+        <v>0.80076000000000003</v>
       </c>
       <c r="D10">
-        <v>0.35294999999999999</v>
+        <v>0.12520000000000001</v>
       </c>
       <c r="E10">
         <f>1-SUM(C10:D10)</f>
-        <v>0.40910000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7.4039999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C11" s="1">
         <f>C10/C9-1</f>
-        <v>-0.65735199999999994</v>
+        <v>-0.10314879999999993</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ref="D11:E11" si="2">D10/D9-1</f>
-        <v>0.72945500000000019</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="E11" s="8">
         <f t="shared" si="2"/>
-        <v>2.7637199999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.51736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C13">
         <v>0.74</v>
       </c>
@@ -3266,127 +3481,128 @@
         <v>9.9500000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>0.21066503</v>
+        <v>2.4893579999999998E-2</v>
       </c>
       <c r="B18">
-        <v>0.19538112999999999</v>
+        <v>1.982211E-2</v>
       </c>
       <c r="C18">
-        <v>9.0603039999999996E-2</v>
+        <v>7.8919100000000002E-3</v>
       </c>
       <c r="D18">
-        <v>2.8009909999999999E-2</v>
+        <v>2.0947100000000001E-3</v>
       </c>
       <c r="N18" s="1">
         <f>A18/I3-1</f>
-        <v>2.1599754500000001</v>
+        <v>0.19489183999999993</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" ref="O18:Q18" si="3">B18/J3-1</f>
-        <v>4.2752905099999996</v>
+        <v>1.1804321</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="3"/>
-        <v>5.3422127999999995</v>
+        <v>1.9200067000000001</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="3"/>
-        <v>6.5626756999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.0737629000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>0.13272669000000001</v>
+        <v>7.2113510000000006E-2</v>
       </c>
       <c r="B19">
-        <v>0.12309726999999999</v>
+        <v>5.7422099999999997E-2</v>
       </c>
       <c r="C19">
-        <v>5.708324E-2</v>
+        <v>2.2861860000000001E-2</v>
       </c>
       <c r="D19">
-        <v>1.764727E-2</v>
+        <v>6.0680999999999999E-3</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ref="N19:Q21" si="4">A19/I4-1</f>
-        <v>0.11490419600000013</v>
+        <v>4.5645895000000047E-2</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="4"/>
-        <v>0.23097269999999992</v>
+        <v>0.55039670000000007</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="4"/>
-        <v>0.71249720000000005</v>
+        <v>1.1718767000000003</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="4"/>
-        <v>1.1176724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.852007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>4.1811340000000002E-2</v>
+        <v>0.10445177</v>
       </c>
       <c r="B20" s="3">
-        <v>3.8777899999999997E-2</v>
+        <v>8.3172220000000005E-2</v>
       </c>
       <c r="C20">
-        <v>1.7982270000000002E-2</v>
+        <v>3.3113940000000001E-2</v>
       </c>
       <c r="D20">
-        <v>5.5592100000000002E-3</v>
+        <v>8.7892500000000002E-3</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="4"/>
-        <v>-0.68223381599999988</v>
+        <v>-1.8153362000000062E-2</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="4"/>
-        <v>-0.62773216000000009</v>
+        <v>0.28916941000000018</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="4"/>
-        <v>-0.53246097999999997</v>
+        <v>0.52324124000000016</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="4"/>
-        <v>-0.444079</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.1094200000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>8.7808899999999995E-3</v>
+        <v>0.10086112</v>
       </c>
       <c r="B21">
-        <v>8.1438299999999995E-3</v>
+        <v>8.031307E-2</v>
       </c>
       <c r="C21">
-        <v>3.7764999999999999E-3</v>
+        <v>3.19756E-2</v>
       </c>
       <c r="D21">
-        <v>1.1674999999999999E-3</v>
+        <v>8.4871100000000008E-3</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="4"/>
-        <v>-0.90341020999999999</v>
+        <v>-0.19311104000000001</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="4"/>
-        <v>-0.88598637999999996</v>
+        <v>3.9133749999999967E-3</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="4"/>
-        <v>-0.87159900000000001</v>
+        <v>0.27902399999999994</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="4"/>
-        <v>-0.84822500000000001</v>
+        <v>0.44280870000000006</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3394,25 +3610,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="9">
         <v>1</v>
       </c>
       <c r="E2">
@@ -3440,17 +3656,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>0.12121848</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="9">
         <v>0.10833371999999999</v>
       </c>
       <c r="E3">
@@ -3462,11 +3678,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="9">
         <f>1/11</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="9">
         <f>1/9.8</f>
         <v>0.1020408163265306</v>
       </c>
@@ -3498,14 +3714,14 @@
         <v>-0.56736339999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>0.14745675999999999</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="14">
         <v>0.13178303</v>
       </c>
       <c r="E4">
@@ -3517,15 +3733,15 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="9">
         <f>1/11</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="9">
         <f>1/7.2</f>
         <v>0.1388888888888889</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="9">
         <f>1/11</f>
         <v>9.0909090909090912E-2</v>
       </c>
@@ -3553,14 +3769,14 @@
         <v>-0.54388824000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>8.9687210000000003E-2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>8.0154030000000001E-2</v>
       </c>
       <c r="E5">
@@ -3576,7 +3792,7 @@
         <f>1/19.5</f>
         <v>5.128205128205128E-2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="9">
         <f>1/13</f>
         <v>7.6923076923076927E-2</v>
       </c>
@@ -3608,7 +3824,7 @@
         <v>-0.59454075999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
@@ -3663,7 +3879,7 @@
         <v>-0.67551099999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -3678,7 +3894,7 @@
         <v>0.21739130434782611</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -3699,7 +3915,7 @@
         <v>1.0047082500881419</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -3714,7 +3930,7 @@
         <v>0.27105000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C11" s="1">
         <f>C10/C9-1</f>
         <v>0.39359999999999995</v>
@@ -3728,7 +3944,7 @@
         <v>-0.31153299999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C13">
         <v>0.74</v>
       </c>
@@ -3740,7 +3956,7 @@
         <v>9.9500000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>0.12121848</v>
       </c>
@@ -3770,7 +3986,7 @@
         <v>-0.56736339999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>0.14745675999999999</v>
       </c>
@@ -3800,7 +4016,7 @@
         <v>-0.54388824000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>8.9687210000000003E-2</v>
       </c>
@@ -3830,7 +4046,7 @@
         <v>-0.59454075999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>3.6366799999999998E-2</v>
       </c>
@@ -3861,6 +4077,956 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BAC134-74AE-4B1C-8B37-E95715EDC099}">
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>8.0343979999999995E-2</v>
+      </c>
+      <c r="D3" s="16">
+        <v>7.1898829999999997E-2</v>
+      </c>
+      <c r="E3" s="15">
+        <v>3.217068E-2</v>
+      </c>
+      <c r="F3" s="15">
+        <v>9.5963799999999998E-3</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <f>1/13</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="J3" s="10">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K3" s="10">
+        <f>1/26</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="L3">
+        <f>1/70</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <f>C3/I3-1</f>
+        <v>4.4471739999999871E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:Q6" si="0">D3/J3-1</f>
+        <v>7.848244999999987E-2</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.16356232000000004</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.32825340000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.13068353999999999</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.11694707999999999</v>
+      </c>
+      <c r="E4" s="15">
+        <v>5.2327239999999997E-2</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1.5609E-2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <f>1/9.4</f>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="J4" s="10">
+        <f>1/7.6</f>
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="K4" s="10">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L4">
+        <f>1/44</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N6" si="1">C4/I4-1</f>
+        <v>0.22842527599999984</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.11120219200000003</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.21509140000000004</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.31320400000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.10628170000000001</v>
+      </c>
+      <c r="D5" s="16">
+        <v>9.5110169999999994E-2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>4.2556450000000003E-2</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1.269441E-2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="10">
+        <f>1/11.5</f>
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="J5" s="10">
+        <f>1/9.4</f>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="K5" s="10">
+        <f>1/17.5</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="L5">
+        <f>1/50</f>
+        <v>0.02</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22223955000000006</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.10596440200000001</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.2552621249999999</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.36527949999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15">
+        <v>5.7624189999999999E-2</v>
+      </c>
+      <c r="D6" s="15">
+        <v>5.1567170000000002E-2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2.3073409999999999E-2</v>
+      </c>
+      <c r="F6" s="15">
+        <v>6.8827000000000003E-3</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="10">
+        <f>1/23</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="J6" s="17">
+        <f>1/19.5</f>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="K6" s="17">
+        <f>1/34</f>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="L6">
+        <f>1/90</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32535636999999995</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5598150000000235E-3</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.21550406</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.38055700000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <f>1/4.6</f>
+        <v>0.21739130434782611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f>1/2.08</f>
+        <v>0.48076923076923073</v>
+      </c>
+      <c r="D9">
+        <f>1/3.6</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="E9" s="2">
+        <f>1/4.1</f>
+        <v>0.24390243902439027</v>
+      </c>
+      <c r="F9">
+        <f>SUM(C9:E9)</f>
+        <v>1.0024494475713988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0.54605199999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.24739430000000001</v>
+      </c>
+      <c r="E10">
+        <f>1-SUM(C10:D10)</f>
+        <v>0.20655369999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C11" s="1">
+        <f>C10/C9-1</f>
+        <v>0.13578816000000016</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ref="D11:E11" si="2">D10/D9-1</f>
+        <v>-0.10938051999999998</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.15312983000000024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C13">
+        <v>0.74</v>
+      </c>
+      <c r="D13">
+        <v>0.1605</v>
+      </c>
+      <c r="E13">
+        <f>1-C13-D13</f>
+        <v>9.9500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>8.0343979999999995E-2</v>
+      </c>
+      <c r="B18">
+        <v>7.1898829999999997E-2</v>
+      </c>
+      <c r="C18">
+        <v>3.217068E-2</v>
+      </c>
+      <c r="D18">
+        <v>9.5963799999999998E-3</v>
+      </c>
+      <c r="N18" s="1">
+        <f>A18/I3-1</f>
+        <v>4.4471739999999871E-2</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ref="O18:Q18" si="3">B18/J3-1</f>
+        <v>7.848244999999987E-2</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.16356232000000004</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.32825340000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
+        <v>0.13068353999999999</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.11694707999999999</v>
+      </c>
+      <c r="C19">
+        <v>5.2327239999999997E-2</v>
+      </c>
+      <c r="D19">
+        <v>1.5609E-2</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" ref="N19:Q21" si="4">A19/I4-1</f>
+        <v>0.22842527599999984</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.11120219200000003</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.21509140000000004</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.31320400000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>0.10628170000000001</v>
+      </c>
+      <c r="B20" s="7">
+        <v>9.5110169999999994E-2</v>
+      </c>
+      <c r="C20">
+        <v>4.2556450000000003E-2</v>
+      </c>
+      <c r="D20">
+        <v>1.269441E-2</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="4"/>
+        <v>0.22223955000000006</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.10596440200000001</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.2552621249999999</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.36527949999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>5.7624189999999999E-2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5.1567170000000002E-2</v>
+      </c>
+      <c r="C21">
+        <v>2.3073409999999999E-2</v>
+      </c>
+      <c r="D21">
+        <v>6.8827000000000003E-3</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="4"/>
+        <v>0.32535636999999995</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="4"/>
+        <v>5.5598150000000235E-3</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.21550406</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.38055700000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48403EA-3987-4F61-8FC1-1E2E5B0ED4BB}">
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>8.7842770000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>5.7604889999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.8887859999999999E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.1287099999999998E-3</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <f>1/19.5</f>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="J3" s="10">
+        <f>1/36</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="K3" s="10">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="L3">
+        <f>1/470</f>
+        <v>2.1276595744680851E-3</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <f>C3/I3-1</f>
+        <v>0.71293401500000009</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:Q6" si="0">D3/J3-1</f>
+        <v>1.0737760400000003</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88878599999999985</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94049369999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.15604688999999999</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.10233129000000001</v>
+      </c>
+      <c r="E4">
+        <v>3.3553039999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>7.3343899999999997E-3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="J4" s="10">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K4" s="10">
+        <f>1/40</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L4">
+        <f>1/200</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N6" si="1">C4/I4-1</f>
+        <v>0.24837511999999995</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22797548000000023</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3421215999999998</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4668779999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.13860349999999999</v>
+      </c>
+      <c r="D5" s="9">
+        <v>9.0892399999999998E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.980238E-2</v>
+      </c>
+      <c r="F5">
+        <v>6.5145300000000001E-3</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="10">
+        <f>1/6.6</f>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="J5" s="10">
+        <f>1/9.8</f>
+        <v>0.1020408163265306</v>
+      </c>
+      <c r="K5" s="10">
+        <f>1/32</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="L5">
+        <f>1/150</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>-8.521690000000004E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.10925447999999993</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.6323840000000005E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.2820500000000021E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9">
+        <v>8.207333E-2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5.382145E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.7647320000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.85754E-3</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="10">
+        <f>1/9.6</f>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="J6" s="17">
+        <f>1/13</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K6" s="17">
+        <f>1/38</f>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="L6">
+        <f>1/170</f>
+        <v>5.8823529411764705E-3</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.21209603200000005</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.30032115000000004</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.32940183999999995</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.34421820000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <f>1/4.6</f>
+        <v>0.21739130434782611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f>1/1.31</f>
+        <v>0.76335877862595414</v>
+      </c>
+      <c r="D9">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="F9">
+        <f>SUM(C9:E9)</f>
+        <v>1.0069485222156977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0.64368999999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.22412799999999999</v>
+      </c>
+      <c r="E10">
+        <f>1-SUM(C10:D10)</f>
+        <v>0.13218200000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C11" s="1">
+        <f>C10/C9-1</f>
+        <v>-0.15676609999999991</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ref="D11:E11" si="2">D10/D9-1</f>
+        <v>0.34476799999999996</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="2"/>
+        <v>0.71836600000000028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C13">
+        <v>0.74</v>
+      </c>
+      <c r="D13">
+        <v>0.1605</v>
+      </c>
+      <c r="E13">
+        <f>1-C13-D13</f>
+        <v>9.9500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>8.7842770000000001E-2</v>
+      </c>
+      <c r="B18">
+        <v>5.7604889999999999E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.8887859999999999E-2</v>
+      </c>
+      <c r="D18">
+        <v>4.1287099999999998E-3</v>
+      </c>
+      <c r="N18" s="1">
+        <f>A18/I3-1</f>
+        <v>0.71293401500000009</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ref="O18:Q18" si="3">B18/J3-1</f>
+        <v>1.0737760400000003</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.88878599999999985</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.94049369999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
+        <v>0.15604688999999999</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.10233129000000001</v>
+      </c>
+      <c r="C19">
+        <v>3.3553039999999999E-2</v>
+      </c>
+      <c r="D19">
+        <v>7.3343899999999997E-3</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" ref="N19:Q21" si="4">A19/I4-1</f>
+        <v>0.24837511999999995</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="4"/>
+        <v>0.22797548000000023</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="4"/>
+        <v>0.3421215999999998</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4668779999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>0.13860349999999999</v>
+      </c>
+      <c r="B20" s="7">
+        <v>9.0892399999999998E-2</v>
+      </c>
+      <c r="C20">
+        <v>2.980238E-2</v>
+      </c>
+      <c r="D20">
+        <v>6.5145300000000001E-3</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="4"/>
+        <v>-8.521690000000004E-2</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.10925447999999993</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.6323840000000005E-2</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.2820500000000021E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>8.207333E-2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5.382145E-2</v>
+      </c>
+      <c r="C21">
+        <v>1.7647320000000001E-2</v>
+      </c>
+      <c r="D21">
+        <v>3.85754E-3</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.21209603200000005</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.30032115000000004</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.32940183999999995</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.34421820000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Tottenham Westham.xlsx
+++ b/Tottenham Westham.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -59,16 +59,7 @@
     <t>Central</t>
   </si>
   <si>
-    <t>Bris</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
     <t>Perth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ada </t>
   </si>
   <si>
     <t>Mel city</t>
@@ -139,11 +130,23 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Celta</t>
+    <t>Malaga</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Real Madrid</t>
+    <t>espanyol</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>newcastle</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>central coast</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mel city</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -151,9 +154,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="0.00000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -259,11 +264,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -273,15 +281,21 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -302,23 +316,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>294781</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171117</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390027</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123492</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E09FE54F-BDF5-4F51-B0D9-CBC85B53BB56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -334,8 +348,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="1714500"/>
-          <a:ext cx="3952381" cy="2666667"/>
+          <a:off x="4638675" y="1400175"/>
+          <a:ext cx="3980952" cy="2666667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -450,22 +464,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>151906</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180481</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>18717</xdr:rowOff>
+      <xdr:rowOff>161592</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA6F94B5-C294-442A-BAD8-E8744933BE94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA20FC7-3801-4C1E-A4CC-AFB7F4A65058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -481,7 +495,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5114925" y="1466850"/>
+          <a:off x="4914900" y="1609725"/>
           <a:ext cx="3952381" cy="2666667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -498,23 +512,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>294781</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171117</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>275731</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152067</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3923DBEC-EFA2-4EE2-BB3A-3AC2BBCCADD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -530,7 +544,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="1905000"/>
+          <a:off x="4552950" y="1600200"/>
           <a:ext cx="3952381" cy="2666667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1152,7 +1166,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1251,7 +1265,7 @@
       <c r="C4" s="7">
         <v>9.0686199999999995E-2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>7.6446680000000003E-2</v>
       </c>
       <c r="E4">
@@ -1617,7 +1631,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -1654,7 +1668,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1822,7 +1836,7 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>0.11301026</v>
       </c>
       <c r="D6" s="7">
@@ -1841,11 +1855,11 @@
         <f>1/8.2</f>
         <v>0.12195121951219513</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <f>1/17</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <f>1/50</f>
         <v>0.02</v>
       </c>
@@ -2090,7 +2104,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -2127,7 +2141,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2242,7 +2256,7 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>0.10495284000000001</v>
       </c>
       <c r="D5" s="7">
@@ -2316,11 +2330,11 @@
         <f>1/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <f>1/17.5</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <f>1/42</f>
         <v>2.3809523809523808E-2</v>
       </c>
@@ -2566,7 +2580,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -2603,7 +2617,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2666,7 +2680,7 @@
       <c r="C4" s="7">
         <v>0.17196407</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>0.10362977</v>
       </c>
       <c r="E4">
@@ -2792,11 +2806,11 @@
         <f>1/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <f>1/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <f>1/30</f>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -3031,18 +3045,23 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777AD023-E851-444E-B4B5-995BF3950C8C}">
-  <sheetPr codeName="Sheet14"/>
+  <sheetPr codeName="Sheet14">
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="12" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -3079,170 +3098,168 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>2.1751019999999999E-2</v>
-      </c>
-      <c r="D3">
-        <v>5.7680090000000003E-2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>7.6479000000000005E-2</v>
-      </c>
-      <c r="F3" s="7">
-        <v>6.7603209999999997E-2</v>
+      <c r="C3" s="7">
+        <v>9.821423E-2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>8.601396E-2</v>
+      </c>
+      <c r="E3">
+        <v>3.7664610000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.099529E-2</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="8">
-        <f>1/34</f>
-        <v>2.9411764705882353E-2</v>
-      </c>
-      <c r="J3" s="7">
-        <f>1/15</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K3" s="7">
-        <f>1/12</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="L3" s="7">
-        <f>1/15.5</f>
-        <v>6.4516129032258063E-2</v>
+      <c r="I3" s="17">
+        <f>1/8.2</f>
+        <v>0.12195121951219513</v>
+      </c>
+      <c r="J3" s="17">
+        <f>1/8.8</f>
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="K3" s="17">
+        <f>1/17</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="L3" s="14">
+        <f>1/50</f>
+        <v>0.02</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3" s="1">
         <f>C3/I3-1</f>
-        <v>-0.26046532</v>
+        <v>-0.19464331400000012</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ref="O3:Q6" si="0">D3/J3-1</f>
-        <v>-0.13479864999999991</v>
+        <v>-0.24307715200000002</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>-8.2251999999999881E-2</v>
+        <v>-0.35970162999999999</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
-        <v>4.7849754999999883E-2</v>
+        <v>-0.45023550000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
-        <v>2.5584869999999999E-2</v>
+      <c r="C4" s="7">
+        <v>0.14190238999999999</v>
       </c>
       <c r="D4" s="7">
-        <v>6.7846829999999997E-2</v>
+        <v>0.12427514000000001</v>
       </c>
       <c r="E4" s="7">
-        <v>8.9959259999999999E-2</v>
-      </c>
-      <c r="F4" s="7">
-        <v>7.9519000000000006E-2</v>
+        <v>5.441878E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.5886270000000001E-2</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" s="8">
-        <f>1/36</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="J4" s="7">
-        <f>1/12</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="K4" s="7">
-        <f>1/9.8</f>
-        <v>0.1020408163265306</v>
-      </c>
-      <c r="L4" s="15">
-        <f>1/12.5</f>
-        <v>0.08</v>
+      <c r="I4" s="17">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="J4" s="17">
+        <f>1/6.8</f>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="K4" s="17">
+        <f>1/13.5</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="L4" s="14">
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N6" si="1">C4/I4-1</f>
-        <v>-7.8944679999999989E-2</v>
+        <v>0.13521911999999991</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>-0.18583804000000004</v>
+        <v>-0.15492904799999996</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>-0.1183992519999999</v>
+        <v>-0.26534647</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>-6.0124999999999762E-3</v>
+        <v>-0.39632173999999998</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
-        <v>1.504724E-2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3.9902779999999999E-2</v>
-      </c>
-      <c r="E5" s="7">
-        <v>5.290777E-2</v>
+      <c r="C5" s="7">
+        <v>0.10251207</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8.9777919999999997E-2</v>
+      </c>
+      <c r="E5">
+        <v>3.9312809999999997E-2</v>
       </c>
       <c r="F5">
-        <v>4.6767540000000003E-2</v>
+        <v>1.1476439999999999E-2</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" s="8">
-        <f>1/60</f>
+      <c r="I5" s="17">
+        <f>1/14.5</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="J5" s="17">
+        <f>1/12.5</f>
+        <v>0.08</v>
+      </c>
+      <c r="K5" s="14">
+        <f>1/21</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="L5" s="14">
         <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="J5" s="8">
-        <f>1/22</f>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="K5" s="7">
-        <f>1/16</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="L5" s="15">
-        <f>1/20</f>
-        <v>0.05</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>-9.7165599999999963E-2</v>
+        <v>0.48642501500000002</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>-0.12213884000000008</v>
+        <v>0.12222399999999989</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>-0.15347568</v>
+        <v>-0.17443099000000006</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>-6.4649199999999962E-2</v>
+        <v>-0.31141360000000007</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -3250,54 +3267,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>5.89983E-3</v>
+        <v>4.9370669999999998E-2</v>
       </c>
       <c r="D6" s="5">
-        <v>1.5645360000000001E-2</v>
+        <v>4.32378E-2</v>
       </c>
       <c r="E6">
-        <v>2.0744450000000001E-2</v>
+        <v>1.893338E-2</v>
       </c>
       <c r="F6">
-        <v>1.8336939999999999E-2</v>
+        <v>5.5271499999999998E-3</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6" s="8">
-        <f>1/160</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="J6" s="13">
+      <c r="I6" s="14">
+        <f>1/40</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J6" s="15">
+        <f>1/34</f>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="K6" s="15">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="K6" s="13">
-        <f>1/46</f>
-        <v>2.1739130434782608E-2</v>
-      </c>
-      <c r="L6">
-        <f>1/48</f>
-        <v>2.0833333333333332E-2</v>
+      <c r="L6" s="16">
+        <f>1/140</f>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="M6">
         <v>3</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="1"/>
-        <v>-5.6027200000000055E-2</v>
+        <v>0.97482679999999977</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>-6.1278399999999955E-2</v>
+        <v>0.47008519999999998</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>-4.5755299999999943E-2</v>
+        <v>0.13600279999999998</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
-        <v>-0.11982687999999997</v>
+        <v>-0.22619900000000004</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -3320,20 +3337,20 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f>1/6.4</f>
-        <v>0.15625</v>
+        <f>1/2.76</f>
+        <v>0.3623188405797102</v>
       </c>
       <c r="D9">
-        <f>1/5</f>
-        <v>0.2</v>
+        <f>1/3.15</f>
+        <v>0.31746031746031744</v>
       </c>
       <c r="E9" s="2">
-        <f>1/1.53</f>
-        <v>0.65359477124183007</v>
+        <f>1/3.05</f>
+        <v>0.32786885245901642</v>
       </c>
       <c r="F9">
         <f>SUM(C9:E9)</f>
-        <v>1.0098447712418301</v>
+        <v>1.007648010499044</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -3341,28 +3358,28 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.146981</v>
+        <v>0.50409000000000004</v>
       </c>
       <c r="D10">
-        <v>0.16489999999999999</v>
+        <v>0.267789</v>
       </c>
       <c r="E10">
         <f>1-SUM(C10:D10)</f>
-        <v>0.68811900000000004</v>
+        <v>0.22812100000000002</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C11" s="1">
         <f>C10/C9-1</f>
-        <v>-5.9321599999999974E-2</v>
+        <v>0.39128839999999987</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ref="D11:E11" si="2">D10/D9-1</f>
-        <v>-0.1755000000000001</v>
+        <v>-0.15646464999999998</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="2"/>
-        <v>5.2822069999999943E-2</v>
+        <v>-0.30423095</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -3379,122 +3396,122 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>2.1751019999999999E-2</v>
+        <v>9.821423E-2</v>
       </c>
       <c r="B18">
-        <v>5.7680090000000003E-2</v>
+        <v>8.601396E-2</v>
       </c>
       <c r="C18">
-        <v>7.6479000000000005E-2</v>
+        <v>3.7664610000000001E-2</v>
       </c>
       <c r="D18">
-        <v>6.7603209999999997E-2</v>
+        <v>1.099529E-2</v>
       </c>
       <c r="N18" s="1">
         <f>A18/I3-1</f>
-        <v>-0.26046532</v>
+        <v>-0.19464331400000012</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" ref="O18:Q18" si="3">B18/J3-1</f>
-        <v>-0.13479864999999991</v>
+        <v>-0.24307715200000002</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="3"/>
-        <v>-8.2251999999999881E-2</v>
+        <v>-0.35970162999999999</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="3"/>
-        <v>4.7849754999999883E-2</v>
+        <v>-0.45023550000000001</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
-        <v>2.5584869999999999E-2</v>
+        <v>0.14190238999999999</v>
       </c>
       <c r="B19" s="5">
-        <v>6.7846829999999997E-2</v>
+        <v>0.12427514000000001</v>
       </c>
       <c r="C19">
-        <v>8.9959259999999999E-2</v>
+        <v>5.441878E-2</v>
       </c>
       <c r="D19">
-        <v>7.9519000000000006E-2</v>
+        <v>1.5886270000000001E-2</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ref="N19:Q21" si="4">A19/I4-1</f>
-        <v>-7.8944679999999989E-2</v>
+        <v>0.13521911999999991</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="4"/>
-        <v>-0.18583804000000004</v>
+        <v>-0.15492904799999996</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="4"/>
-        <v>-0.1183992519999999</v>
+        <v>-0.26534647</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="4"/>
-        <v>-6.0124999999999762E-3</v>
+        <v>-0.39632173999999998</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
-        <v>1.504724E-2</v>
+        <v>0.10251207</v>
       </c>
       <c r="B20" s="5">
-        <v>3.9902779999999999E-2</v>
+        <v>8.9777919999999997E-2</v>
       </c>
       <c r="C20">
-        <v>5.290777E-2</v>
+        <v>3.9312809999999997E-2</v>
       </c>
       <c r="D20">
-        <v>4.6767540000000003E-2</v>
+        <v>1.1476439999999999E-2</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="4"/>
-        <v>-9.7165599999999963E-2</v>
+        <v>0.48642501500000002</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="4"/>
-        <v>-0.12213884000000008</v>
+        <v>0.12222399999999989</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="4"/>
-        <v>-0.15347568</v>
+        <v>-0.17443099000000006</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="4"/>
-        <v>-6.4649199999999962E-2</v>
+        <v>-0.31141360000000007</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
-        <v>5.89983E-3</v>
+        <v>4.9370669999999998E-2</v>
       </c>
       <c r="B21" s="5">
-        <v>1.5645360000000001E-2</v>
+        <v>4.32378E-2</v>
       </c>
       <c r="C21">
-        <v>2.0744450000000001E-2</v>
+        <v>1.893338E-2</v>
       </c>
       <c r="D21">
-        <v>1.8336939999999999E-2</v>
+        <v>5.5271499999999998E-3</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="4"/>
-        <v>-5.6027200000000055E-2</v>
+        <v>0.97482679999999977</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="4"/>
-        <v>-6.1278399999999955E-2</v>
+        <v>0.47008519999999998</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="4"/>
-        <v>-4.5755299999999943E-2</v>
+        <v>0.13600279999999998</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="4"/>
-        <v>-0.11982687999999997</v>
+        <v>-0.22619900000000004</v>
       </c>
     </row>
   </sheetData>
@@ -3511,14 +3528,20 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D3" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -3549,57 +3572,57 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>5.6535549999999997E-2</v>
+      <c r="C3" s="8">
+        <v>4.675526E-2</v>
       </c>
       <c r="D3" s="7">
-        <v>6.8554680000000007E-2</v>
-      </c>
-      <c r="E3" s="9">
-        <v>4.1564499999999997E-2</v>
-      </c>
-      <c r="F3">
-        <v>1.6800289999999999E-2</v>
+        <v>5.5674719999999997E-2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3.3147879999999998E-2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1.3157159999999999E-2</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <f>1/14.5</f>
-        <v>6.8965517241379309E-2</v>
-      </c>
-      <c r="J3">
-        <f>1/13.5</f>
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="K3">
-        <f>1/18.5</f>
-        <v>5.4054054054054057E-2</v>
-      </c>
-      <c r="L3">
-        <f>1/42</f>
-        <v>2.3809523809523808E-2</v>
+      <c r="I3" s="17">
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="J3" s="17">
+        <f>1/17</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="K3" s="14">
+        <f>1/36</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="L3" s="16">
+        <f>1/8</f>
+        <v>0.125</v>
       </c>
       <c r="N3" s="1">
         <f>C3/I3-1</f>
-        <v>-0.18023452500000003</v>
+        <v>-0.34542635999999993</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ref="O3:Q6" si="0">D3/J3-1</f>
-        <v>-7.4511819999999895E-2</v>
+        <v>-5.3529760000000093E-2</v>
       </c>
       <c r="P3" s="6">
         <f t="shared" si="0"/>
-        <v>-0.23105675000000014</v>
+        <v>0.19332368</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
-        <v>-0.29438781999999997</v>
+        <v>-0.89474271999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -3607,51 +3630,51 @@
         <v>1</v>
       </c>
       <c r="C4" s="7">
-        <v>9.3865500000000004E-2</v>
+        <v>8.7528610000000007E-2</v>
       </c>
       <c r="D4" s="7">
-        <v>0.11382075</v>
-      </c>
-      <c r="E4" s="7">
-        <v>6.9009180000000003E-2</v>
-      </c>
-      <c r="F4">
-        <v>2.7893379999999999E-2</v>
+        <v>0.10422637999999999</v>
+      </c>
+      <c r="E4" s="8">
+        <v>6.2054789999999999E-2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2.463098E-2</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <f>1/11.5</f>
-        <v>8.6956521739130432E-2</v>
-      </c>
-      <c r="J4">
-        <f>1/7.6</f>
-        <v>0.13157894736842105</v>
-      </c>
-      <c r="K4">
-        <f>1/11.5</f>
-        <v>8.6956521739130432E-2</v>
-      </c>
-      <c r="L4">
-        <f>1/26</f>
-        <v>3.8461538461538464E-2</v>
+      <c r="I4" s="17">
+        <f>1/8.4</f>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="J4" s="17">
+        <f>1/8.2</f>
+        <v>0.12195121951219513</v>
+      </c>
+      <c r="K4" s="17">
+        <f>1/17</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="L4" s="16">
+        <f>1/50</f>
+        <v>0.02</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N6" si="1">C4/I4-1</f>
-        <v>7.9453250000000031E-2</v>
+        <v>-0.26475967599999994</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>-0.13496229999999998</v>
+        <v>-0.14534368400000008</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>-0.20639442999999991</v>
+        <v>5.4931429999999892E-2</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>-0.27477212000000006</v>
+        <v>0.231549</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -3659,103 +3682,103 @@
         <v>2</v>
       </c>
       <c r="C5" s="7">
-        <v>7.7922039999999998E-2</v>
+        <v>8.1929379999999996E-2</v>
       </c>
       <c r="D5" s="7">
-        <v>9.4487810000000005E-2</v>
+        <v>9.7558989999999998E-2</v>
       </c>
       <c r="E5" s="8">
-        <v>5.7287680000000001E-2</v>
-      </c>
-      <c r="F5">
-        <v>2.315557E-2</v>
+        <v>5.8085119999999997E-2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2.3055329999999999E-2</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5">
-        <f>1/16</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="J5">
-        <f>1/10.5</f>
-        <v>9.5238095238095233E-2</v>
-      </c>
-      <c r="K5">
-        <f>1/14.5</f>
-        <v>6.8965517241379309E-2</v>
-      </c>
-      <c r="L5">
-        <f>1/32</f>
-        <v>3.125E-2</v>
+      <c r="I5" s="17">
+        <f>1/9.6</f>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="J5" s="17">
+        <f>1/8.6</f>
+        <v>0.11627906976744186</v>
+      </c>
+      <c r="K5" s="17">
+        <f>1/15.5</f>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="L5" s="16">
+        <f>1/50</f>
+        <v>0.02</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>0.24675263999999997</v>
+        <v>-0.21347795200000008</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>-7.87799499999986E-3</v>
+        <v>-0.16099268600000005</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>-0.16932864000000003</v>
+        <v>-9.9680639999999987E-2</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>-0.25902175999999999</v>
+        <v>0.15276650000000003</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
-        <v>4.312444E-2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>5.2292430000000001E-2</v>
-      </c>
-      <c r="E6">
-        <v>3.1704749999999997E-2</v>
-      </c>
-      <c r="F6">
-        <v>1.2815E-2</v>
+      <c r="C6" s="7">
+        <v>5.1125549999999999E-2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6.0878740000000001E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3.6246260000000002E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.4386980000000001E-2</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6">
-        <f>1/34</f>
-        <v>2.9411764705882353E-2</v>
-      </c>
-      <c r="J6" s="4">
-        <f>1/23</f>
-        <v>4.3478260869565216E-2</v>
-      </c>
-      <c r="K6" s="4">
-        <f>1/30</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="L6">
+      <c r="I6" s="17">
+        <f>1/6.2</f>
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="J6" s="19">
+        <f>1/14.5</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="K6" s="18">
+        <f>1/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L6" s="16">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="1"/>
-        <v>0.46623096000000008</v>
+        <v>-0.68302159000000007</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>0.20272588999999996</v>
+        <v>-0.11725827</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>-4.8857500000000109E-2</v>
+        <v>-0.13008975999999994</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
-        <v>-0.23109999999999997</v>
+        <v>-0.13678119999999994</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -3778,20 +3801,20 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f>1/2.54</f>
-        <v>0.39370078740157477</v>
+        <f>1/1.71</f>
+        <v>0.58479532163742687</v>
       </c>
       <c r="D9">
-        <f>1/3.7</f>
-        <v>0.27027027027027023</v>
+        <f>1/4</f>
+        <v>0.25</v>
       </c>
       <c r="E9" s="2">
-        <f>1/2.9</f>
-        <v>0.34482758620689657</v>
+        <f>1/5.2</f>
+        <v>0.19230769230769229</v>
       </c>
       <c r="F9">
         <f>SUM(C9:E9)</f>
-        <v>1.0087986438787415</v>
+        <v>1.0271030139451192</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -3799,28 +3822,28 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.47846</v>
+        <v>0.53298999999999996</v>
       </c>
       <c r="D10">
-        <v>0.2422</v>
+        <v>0.2256485</v>
       </c>
       <c r="E10">
         <f>1-SUM(C10:D10)</f>
-        <v>0.27934000000000003</v>
+        <v>0.24136150000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C11" s="1">
         <f>C10/C9-1</f>
-        <v>0.21528840000000016</v>
+        <v>-8.858710000000003E-2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ref="D11:E11" si="2">D10/D9-1</f>
-        <v>-0.10385999999999984</v>
+        <v>-9.7405999999999993E-2</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>-0.18991399999999992</v>
+        <v>0.25507980000000008</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -3837,122 +3860,122 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>5.6535549999999997E-2</v>
+        <v>4.675526E-2</v>
       </c>
       <c r="B18">
-        <v>6.8554680000000007E-2</v>
+        <v>5.5674719999999997E-2</v>
       </c>
       <c r="C18">
-        <v>4.1564499999999997E-2</v>
+        <v>3.3147879999999998E-2</v>
       </c>
       <c r="D18">
-        <v>1.6800289999999999E-2</v>
+        <v>1.3157159999999999E-2</v>
       </c>
       <c r="N18" s="1">
         <f>A18/I3-1</f>
-        <v>-0.18023452500000003</v>
+        <v>-0.34542635999999993</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" ref="O18:Q18" si="3">B18/J3-1</f>
-        <v>-7.4511819999999895E-2</v>
+        <v>-5.3529760000000093E-2</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="3"/>
-        <v>-0.23105675000000014</v>
+        <v>0.19332368</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="3"/>
-        <v>-0.29438781999999997</v>
+        <v>-0.89474271999999999</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>9.3865500000000004E-2</v>
+        <v>8.7528610000000007E-2</v>
       </c>
       <c r="B19">
-        <v>0.11382075</v>
+        <v>0.10422637999999999</v>
       </c>
       <c r="C19">
-        <v>6.9009180000000003E-2</v>
+        <v>6.2054789999999999E-2</v>
       </c>
       <c r="D19">
-        <v>2.7893379999999999E-2</v>
+        <v>2.463098E-2</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ref="N19:Q21" si="4">A19/I4-1</f>
-        <v>7.9453250000000031E-2</v>
+        <v>-0.26475967599999994</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="4"/>
-        <v>-0.13496229999999998</v>
+        <v>-0.14534368400000008</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="4"/>
-        <v>-0.20639442999999991</v>
+        <v>5.4931429999999892E-2</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="4"/>
-        <v>-0.27477212000000006</v>
+        <v>0.231549</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>7.7922039999999998E-2</v>
+        <v>8.1929379999999996E-2</v>
       </c>
       <c r="B20" s="3">
-        <v>9.4487810000000005E-2</v>
+        <v>9.7558989999999998E-2</v>
       </c>
       <c r="C20">
-        <v>5.7287680000000001E-2</v>
+        <v>5.8085119999999997E-2</v>
       </c>
       <c r="D20">
-        <v>2.315557E-2</v>
+        <v>2.3055329999999999E-2</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="4"/>
-        <v>0.24675263999999997</v>
+        <v>-0.21347795200000008</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="4"/>
-        <v>-7.87799499999986E-3</v>
+        <v>-0.16099268600000005</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="4"/>
-        <v>-0.16932864000000003</v>
+        <v>-9.9680639999999987E-2</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="4"/>
-        <v>-0.25902175999999999</v>
+        <v>0.15276650000000003</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>4.312444E-2</v>
+        <v>5.1125549999999999E-2</v>
       </c>
       <c r="B21">
-        <v>5.2292430000000001E-2</v>
+        <v>6.0878740000000001E-2</v>
       </c>
       <c r="C21">
-        <v>3.1704749999999997E-2</v>
+        <v>3.6246260000000002E-2</v>
       </c>
       <c r="D21">
-        <v>1.2815E-2</v>
+        <v>1.4386980000000001E-2</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="4"/>
-        <v>0.46623096000000008</v>
+        <v>-0.68302159000000007</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="4"/>
-        <v>0.20272588999999996</v>
+        <v>-0.11725827</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="4"/>
-        <v>-4.8857500000000109E-2</v>
+        <v>-0.13008975999999994</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="4"/>
-        <v>-0.23109999999999997</v>
+        <v>-0.13678119999999994</v>
       </c>
     </row>
   </sheetData>
@@ -3968,15 +3991,15 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -4007,213 +4030,213 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>4.7139819999999999E-2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>6.7427340000000002E-2</v>
-      </c>
-      <c r="E3">
-        <v>4.822299E-2</v>
-      </c>
-      <c r="F3" s="9">
-        <v>2.2992229999999999E-2</v>
+      <c r="C3" s="8">
+        <v>1.8020189999999998E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3.5894839999999997E-2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3.5749900000000001E-2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2.3737029999999999E-2</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <f>1/16</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="J3">
-        <f>1/14</f>
-        <v>7.1428571428571425E-2</v>
+      <c r="I3" s="7">
+        <f>1/14.5</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="J3" s="7">
+        <f>1/9.6</f>
+        <v>0.10416666666666667</v>
       </c>
       <c r="K3">
-        <f>1/20</f>
-        <v>0.05</v>
+        <f>1/12.5</f>
+        <v>0.08</v>
       </c>
       <c r="L3">
-        <f>1/42</f>
-        <v>2.3809523809523808E-2</v>
+        <f>1/23</f>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="N3" s="1">
         <f>C3/I3-1</f>
-        <v>-0.24576288000000002</v>
+        <v>-0.73870724500000007</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ref="O3:Q6" si="0">D3/J3-1</f>
-        <v>-5.6017239999999968E-2</v>
+        <v>-0.65540953600000007</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>-3.5540200000000022E-2</v>
+        <v>-0.55312625000000004</v>
       </c>
       <c r="Q3" s="6">
         <f t="shared" si="0"/>
-        <v>-3.4326340000000011E-2</v>
+        <v>-0.45404831000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>7.6567700000000002E-2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.10952008000000001</v>
-      </c>
-      <c r="E4" s="3">
-        <v>7.8327069999999999E-2</v>
-      </c>
-      <c r="F4">
-        <v>3.7345540000000003E-2</v>
+      <c r="C4" s="8">
+        <v>3.6478959999999998E-2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7.2663320000000003E-2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>7.2369900000000001E-2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4.8051780000000002E-2</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <f>1/11.5</f>
-        <v>8.6956521739130432E-2</v>
-      </c>
-      <c r="J4">
-        <f>1/7.8</f>
-        <v>0.12820512820512822</v>
-      </c>
-      <c r="K4">
+      <c r="I4" s="7">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="L4">
-        <f>1/27</f>
-        <v>3.7037037037037035E-2</v>
+      <c r="J4" s="7">
+        <f>1/7.2</f>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="K4" s="7">
+        <f>1/9.4</f>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="L4" s="7">
+        <f>1/19.5</f>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N6" si="1">C4/I4-1</f>
-        <v>-0.11947144999999992</v>
+        <v>-0.56225247999999994</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>-0.14574337600000009</v>
+        <v>-0.47682409599999998</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>-6.0075160000000016E-2</v>
+        <v>-0.31972294000000001</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>8.3295800000000586E-3</v>
+        <v>-6.2990289999999893E-2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
-        <v>6.2183240000000001E-2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>8.8944990000000002E-2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>6.3612080000000001E-2</v>
-      </c>
-      <c r="F5">
-        <v>3.032959E-2</v>
+      <c r="C5" s="8">
+        <v>3.692289E-2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7.3547580000000001E-2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>7.3250599999999999E-2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4.8636539999999999E-2</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5">
-        <f>1/15</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J5">
-        <f>1/10.5</f>
-        <v>9.5238095238095233E-2</v>
-      </c>
-      <c r="K5">
+      <c r="I5" s="20">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J5" s="7">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K5" s="7">
         <f>1/14.5</f>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="L5">
-        <f>1/32</f>
-        <v>3.125E-2</v>
+        <f>1/26</f>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>-6.7251399999999961E-2</v>
+        <v>-0.26154220000000006</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>-6.6077604999999928E-2</v>
+        <v>-0.11742903999999998</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>-7.7624839999999917E-2</v>
+        <v>6.2133699999999958E-2</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>-2.9453119999999999E-2</v>
+        <v>0.26455003999999982</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
-        <v>3.3667420000000003E-2</v>
-      </c>
-      <c r="D6">
-        <v>4.8156829999999998E-2</v>
-      </c>
-      <c r="E6">
-        <v>3.4441020000000003E-2</v>
-      </c>
-      <c r="F6">
-        <v>1.6421129999999999E-2</v>
+      <c r="C6" s="8">
+        <v>2.4914809999999999E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4.9628409999999998E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.9428E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3.2818939999999998E-2</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7">
+        <f>1/7.4</f>
+        <v>0.13513513513513511</v>
+      </c>
+      <c r="J6" s="4">
         <f>1/30</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="J6" s="4">
-        <f>1/21</f>
-        <v>4.7619047619047616E-2</v>
-      </c>
       <c r="K6" s="4">
-        <f>1/29</f>
-        <v>3.4482758620689655E-2</v>
+        <f>1/32</f>
+        <v>3.125E-2</v>
       </c>
       <c r="L6">
-        <f>1/60</f>
-        <v>1.6666666666666666E-2</v>
+        <f>1/50</f>
+        <v>0.02</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="1"/>
-        <v>1.0022600000000104E-2</v>
+        <v>-0.81563040599999992</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>1.1293430000000049E-2</v>
+        <v>0.48885230000000002</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2104199999999343E-3</v>
+        <v>0.58169599999999999</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4732200000000084E-2</v>
+        <v>0.64094699999999993</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -4236,20 +4259,20 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f>1/2.38</f>
-        <v>0.42016806722689076</v>
+        <f>1/3.25</f>
+        <v>0.30769230769230771</v>
       </c>
       <c r="D9">
-        <f>1/3.7</f>
-        <v>0.27027027027027023</v>
+        <f>1/3.65</f>
+        <v>0.27397260273972601</v>
       </c>
       <c r="E9" s="2">
-        <f>1/3.05</f>
-        <v>0.32786885245901642</v>
+        <f>1/2.24</f>
+        <v>0.4464285714285714</v>
       </c>
       <c r="F9">
         <f>SUM(C9:E9)</f>
-        <v>1.0183071899561775</v>
+        <v>1.0280934818606051</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -4257,28 +4280,28 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.42257</v>
+        <v>0.40296999999999999</v>
       </c>
       <c r="D10">
-        <v>0.23930999999999999</v>
+        <v>0.20652000000000001</v>
       </c>
       <c r="E10">
         <f>1-SUM(C10:D10)</f>
-        <v>0.33811999999999998</v>
+        <v>0.39051000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C11" s="1">
         <f>C10/C9-1</f>
-        <v>5.7165999999999606E-3</v>
+        <v>0.30965249999999989</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ref="D11:E11" si="2">D10/D9-1</f>
-        <v>-0.1145529999999999</v>
+        <v>-0.24620199999999992</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>3.1265999999999794E-2</v>
+        <v>-0.12525759999999986</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -4295,122 +4318,122 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>4.7139819999999999E-2</v>
+        <v>1.8020189999999998E-2</v>
       </c>
       <c r="B18">
-        <v>6.7427340000000002E-2</v>
+        <v>3.5894839999999997E-2</v>
       </c>
       <c r="C18">
-        <v>4.822299E-2</v>
+        <v>3.5749900000000001E-2</v>
       </c>
       <c r="D18">
-        <v>2.2992229999999999E-2</v>
+        <v>2.3737029999999999E-2</v>
       </c>
       <c r="N18" s="1">
         <f>A18/I3-1</f>
-        <v>-0.24576288000000002</v>
+        <v>-0.73870724500000007</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" ref="O18:Q18" si="3">B18/J3-1</f>
-        <v>-5.6017239999999968E-2</v>
+        <v>-0.65540953600000007</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="3"/>
-        <v>-3.5540200000000022E-2</v>
+        <v>-0.55312625000000004</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="3"/>
-        <v>-3.4326340000000011E-2</v>
+        <v>-0.45404831000000001</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>7.6567700000000002E-2</v>
+        <v>3.6478959999999998E-2</v>
       </c>
       <c r="B19">
-        <v>0.10952008000000001</v>
+        <v>7.2663320000000003E-2</v>
       </c>
       <c r="C19">
-        <v>7.8327069999999999E-2</v>
+        <v>7.2369900000000001E-2</v>
       </c>
       <c r="D19">
-        <v>3.7345540000000003E-2</v>
+        <v>4.8051780000000002E-2</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ref="N19:Q21" si="4">A19/I4-1</f>
-        <v>-0.11947144999999992</v>
+        <v>-0.56225247999999994</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="4"/>
-        <v>-0.14574337600000009</v>
+        <v>-0.47682409599999998</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="4"/>
-        <v>-6.0075160000000016E-2</v>
+        <v>-0.31972294000000001</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="4"/>
-        <v>8.3295800000000586E-3</v>
+        <v>-6.2990289999999893E-2</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>6.2183240000000001E-2</v>
+        <v>3.692289E-2</v>
       </c>
       <c r="B20" s="3">
-        <v>8.8944990000000002E-2</v>
+        <v>7.3547580000000001E-2</v>
       </c>
       <c r="C20">
-        <v>6.3612080000000001E-2</v>
+        <v>7.3250599999999999E-2</v>
       </c>
       <c r="D20">
-        <v>3.032959E-2</v>
+        <v>4.8636539999999999E-2</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="4"/>
-        <v>-6.7251399999999961E-2</v>
+        <v>-0.26154220000000006</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="4"/>
-        <v>-6.6077604999999928E-2</v>
+        <v>-0.11742903999999998</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="4"/>
-        <v>-7.7624839999999917E-2</v>
+        <v>6.2133699999999958E-2</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="4"/>
-        <v>-2.9453119999999999E-2</v>
+        <v>0.26455003999999982</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>3.3667420000000003E-2</v>
+        <v>2.4914809999999999E-2</v>
       </c>
       <c r="B21">
-        <v>4.8156829999999998E-2</v>
+        <v>4.9628409999999998E-2</v>
       </c>
       <c r="C21">
-        <v>3.4441020000000003E-2</v>
+        <v>4.9428E-2</v>
       </c>
       <c r="D21">
-        <v>1.6421129999999999E-2</v>
+        <v>3.2818939999999998E-2</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="4"/>
-        <v>1.0022600000000104E-2</v>
+        <v>-0.81563040599999992</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="4"/>
-        <v>1.1293430000000049E-2</v>
+        <v>0.48885230000000002</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="4"/>
-        <v>-1.2104199999999343E-3</v>
+        <v>0.58169599999999999</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="4"/>
-        <v>-1.4732200000000084E-2</v>
+        <v>0.64094699999999993</v>
       </c>
     </row>
   </sheetData>
@@ -4434,7 +4457,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -4465,7 +4488,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4898,7 +4921,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -4929,15 +4952,15 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>2.4893579999999998E-2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>1.982211E-2</v>
       </c>
       <c r="E3" s="5">
@@ -4986,10 +5009,10 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>7.2113510000000006E-2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>5.7422099999999997E-2</v>
       </c>
       <c r="E4" s="5">
@@ -5038,10 +5061,10 @@
       <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>0.10445177</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>8.3172220000000005E-2</v>
       </c>
       <c r="E5" s="5">
@@ -5090,10 +5113,10 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>0.10086112</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>8.031307E-2</v>
       </c>
       <c r="E6" s="5">
@@ -5355,7 +5378,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -5392,7 +5415,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5455,7 +5478,7 @@
       <c r="C4" s="7">
         <v>0.14745675999999999</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>0.13178303</v>
       </c>
       <c r="E4">
@@ -5831,7 +5854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -5868,21 +5891,21 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>8.0343979999999995E-2</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>7.1898829999999997E-2</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>3.217068E-2</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>9.5963799999999998E-3</v>
       </c>
       <c r="H3">
@@ -5928,16 +5951,16 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>0.13068353999999999</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0.11694707999999999</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>5.2327239999999997E-2</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>1.5609E-2</v>
       </c>
       <c r="H4">
@@ -5983,16 +6006,16 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>0.10628170000000001</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>9.5110169999999994E-2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>4.2556450000000003E-2</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>1.269441E-2</v>
       </c>
       <c r="H5">
@@ -6038,16 +6061,16 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>5.7624189999999999E-2</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>5.1567170000000002E-2</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>2.3073409999999999E-2</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>6.8827000000000003E-3</v>
       </c>
       <c r="H6">
@@ -6057,11 +6080,11 @@
         <f>1/23</f>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <f>1/19.5</f>
         <v>5.128205128205128E-2</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <f>1/34</f>
         <v>2.9411764705882353E-2</v>
       </c>
@@ -6307,7 +6330,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -6344,7 +6367,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6404,7 +6427,7 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>0.15604688999999999</v>
       </c>
       <c r="D4" s="7">
@@ -6533,11 +6556,11 @@
         <f>1/9.6</f>
         <v>0.10416666666666667</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <f>1/13</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <f>1/38</f>
         <v>2.6315789473684209E-2</v>
       </c>
@@ -6782,7 +6805,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -6819,7 +6842,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6879,7 +6902,7 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>0.12146361</v>
       </c>
       <c r="D4" s="7">
@@ -7008,11 +7031,11 @@
         <f>1/50</f>
         <v>0.02</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <f>1/38</f>
         <v>2.6315789473684209E-2</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <f>1/50</f>
         <v>0.02</v>
       </c>
